--- a/autoservice/SavedReport.xlsx
+++ b/autoservice/SavedReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkAndLearning\beckendLearning\testwork\autoservice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0CD5575-33AC-4520-AAEC-E3B1FC7A8494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{251F41AD-8E51-4D77-BE88-AA6EA88EA529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A8DB55A-5D99-40D2-8BB5-12E64B2F1236}"/>
   </bookViews>
